--- a/Input/Orient_basic/benefits.xlsx
+++ b/Input/Orient_basic/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">startDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residency</t>
   </si>
   <si>
     <t xml:space="preserve">NEMED</t>
@@ -240,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
   </si>
 </sst>
 </file>
@@ -255,6 +261,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -275,6 +282,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -353,15 +361,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY2" activeCellId="0" sqref="AY2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AZ2" activeCellId="0" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="47" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="49" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,141 +524,150 @@
       <c r="AY1" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="AZ1" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
